--- a/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="6696" windowWidth="29640" windowHeight="14424" activeTab="1"/>
+    <workbookView xWindow="7440" yWindow="6690" windowWidth="29640" windowHeight="14430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
   <si>
     <t>Ref Des</t>
   </si>
@@ -243,55 +243,7 @@
     <t>GP02HYPM-MPM01-02-ZPLSGA010 will be added in later deployments</t>
   </si>
   <si>
-    <r>
-      <t>GP02HYPM-GP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01-00-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SIOENG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-  </si>
-  <si>
     <t>This is a made-up serial number for the controller card</t>
-  </si>
-  <si>
-    <t>GP02HYPM-00002-GPM01</t>
   </si>
   <si>
     <r>
@@ -413,6 +365,15 @@
   </si>
   <si>
     <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>GP02HYPM-RIM01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GP02HYPM-00002-SIOENG</t>
+  </si>
+  <si>
+    <t>OL000060</t>
   </si>
 </sst>
 </file>
@@ -893,7 +854,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1095,6 +1056,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="137">
     <cellStyle name="Comma 2" xfId="62"/>
@@ -1558,28 +1520,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1627,9 +1589,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>15</v>
@@ -1659,7 +1621,7 @@
         <v>4219</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L2" s="59"/>
       <c r="M2" s="26">
@@ -1677,47 +1639,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="23"/>
@@ -1738,34 +1700,34 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -1774,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
@@ -1789,7 +1751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1800,12 +1762,12 @@
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
@@ -1814,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="42">
         <v>2736</v>
@@ -1829,12 +1791,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>16</v>
@@ -1843,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="41">
         <v>2736</v>
@@ -1856,12 +1818,12 @@
       </c>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>16</v>
@@ -1870,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="41">
         <v>2736</v>
@@ -1883,12 +1845,12 @@
       </c>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>16</v>
@@ -1897,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="41">
         <v>2736</v>
@@ -1910,12 +1872,12 @@
       </c>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>16</v>
@@ -1924,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="41">
         <v>2736</v>
@@ -1939,12 +1901,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>16</v>
@@ -1953,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="41">
         <v>2736</v>
@@ -1968,12 +1930,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>16</v>
@@ -1982,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="41">
         <v>2736</v>
@@ -1997,12 +1959,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>16</v>
@@ -2011,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="41">
         <v>2736</v>
@@ -2026,7 +1988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="54"/>
       <c r="C11" s="32"/>
@@ -2034,12 +1996,12 @@
       <c r="H11" s="29"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
@@ -2048,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="42">
         <v>1086</v>
@@ -2060,12 +2022,12 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>16</v>
@@ -2074,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="41">
         <v>1086</v>
@@ -2086,7 +2048,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="54"/>
       <c r="C14" s="32"/>
@@ -2094,12 +2056,12 @@
       <c r="G14" s="31"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>16</v>
@@ -2108,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="42">
         <v>107</v>
@@ -2120,12 +2082,12 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>16</v>
@@ -2134,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="41">
         <v>107</v>
@@ -2146,7 +2108,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="54"/>
       <c r="C17" s="32"/>
@@ -2154,12 +2116,12 @@
       <c r="G17" s="43"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>16</v>
@@ -2168,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="42">
         <v>1024</v>
@@ -2180,12 +2142,12 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>16</v>
@@ -2194,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="41">
         <v>1024</v>
@@ -2206,7 +2168,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="54"/>
       <c r="C20" s="32"/>
@@ -2216,30 +2178,30 @@
       <c r="G20" s="30"/>
       <c r="H20" s="50"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="53">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="53">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="50"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="54"/>
       <c r="C22" s="32"/>
@@ -2249,12 +2211,12 @@
       <c r="G22" s="31"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>16</v>
@@ -2263,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" s="42">
         <v>3283</v>
@@ -2278,12 +2240,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>16</v>
@@ -2292,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" s="41">
         <v>3283</v>
@@ -2305,12 +2267,12 @@
       </c>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>16</v>
@@ -2319,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" s="41">
         <v>3283</v>
@@ -2332,12 +2294,12 @@
       </c>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>16</v>
@@ -2346,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="41">
         <v>3283</v>
@@ -2359,12 +2321,12 @@
       </c>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>16</v>
@@ -2373,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" s="41">
         <v>3283</v>
@@ -2388,12 +2350,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>16</v>
@@ -2402,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F28" s="41">
         <v>3283</v>
@@ -2417,12 +2379,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>16</v>
@@ -2431,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F29" s="41">
         <v>3283</v>
@@ -2446,12 +2408,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>16</v>
@@ -2460,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="41">
         <v>3283</v>
@@ -2475,7 +2437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="54"/>
       <c r="C31" s="32"/>
@@ -2483,12 +2445,12 @@
       <c r="H31" s="29"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>16</v>
@@ -2497,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="42">
         <v>1480</v>
@@ -2509,12 +2471,12 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>16</v>
@@ -2523,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" s="41">
         <v>1480</v>
@@ -2535,7 +2497,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="54"/>
       <c r="C34" s="32"/>
@@ -2543,12 +2505,12 @@
       <c r="G34" s="31"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
@@ -2557,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="42">
         <v>134</v>
@@ -2569,12 +2531,12 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>16</v>
@@ -2583,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" s="41">
         <v>134</v>
@@ -2595,7 +2557,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="54"/>
       <c r="C37" s="32"/>
@@ -2603,12 +2565,12 @@
       <c r="G37" s="43"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
@@ -2617,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>28</v>
@@ -2629,12 +2591,12 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>16</v>
@@ -2643,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>28</v>
@@ -2655,7 +2617,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="32"/>
@@ -2665,12 +2627,12 @@
       <c r="G40" s="30"/>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>16</v>
@@ -2679,10 +2641,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="55"/>
@@ -2692,7 +2654,7 @@
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="54"/>
       <c r="C42" s="32"/>
@@ -2707,12 +2669,12 @@
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
     </row>
-    <row r="43" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -2728,12 +2690,12 @@
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
     </row>
-    <row r="44" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -2749,7 +2711,7 @@
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
     </row>
-    <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="66"/>
       <c r="F45" s="39"/>
@@ -2757,12 +2719,12 @@
       <c r="H45" s="37"/>
       <c r="I45" s="36"/>
     </row>
-    <row r="46" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>16</v>
@@ -2771,10 +2733,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>27</v>
@@ -2783,15 +2745,15 @@
         <v>1450</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>16</v>
@@ -2800,10 +2762,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>26</v>
@@ -2812,12 +2774,12 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>16</v>
@@ -2826,10 +2788,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>25</v>
@@ -2838,28 +2800,30 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H49" s="29"/>
     </row>
-    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="51" t="s">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="53">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="53">
-        <v>2</v>
-      </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
   <si>
     <t>Ref Des</t>
   </si>
@@ -246,64 +246,6 @@
     <t>This is a made-up serial number for the controller card</t>
   </si>
   <si>
-    <r>
-      <t>GP02HYPM-RI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-CTDMOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>014</t>
-    </r>
-  </si>
-  <si>
-    <t>Nominal imodem ID is 39, but actual for this deployment is 14; parser will overwrite 039 from ingest .csv file with 014</t>
-  </si>
-  <si>
     <t>MV-1404</t>
   </si>
   <si>
@@ -313,9 +255,6 @@
     <t>GP02HYPM-MPM01-02-ZPLSGA010</t>
   </si>
   <si>
-    <t>GP02HYPM-RIM01-02-CTDMOG014</t>
-  </si>
-  <si>
     <t>Mooring OOIBARCODE</t>
   </si>
   <si>
@@ -374,6 +313,9 @@
   </si>
   <si>
     <t>OL000060</t>
+  </si>
+  <si>
+    <t>GP02HYPM-RIM01-02-CTDMOG039</t>
   </si>
 </sst>
 </file>
@@ -387,7 +329,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,13 +509,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -847,14 +782,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1019,9 +954,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1037,16 +969,16 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,7 +1449,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1540,8 +1472,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>62</v>
+      <c r="A1" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1591,7 +1523,7 @@
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>15</v>
@@ -1599,31 +1531,31 @@
       <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="59">
-        <v>2</v>
-      </c>
-      <c r="E2" s="60">
+      <c r="D2" s="58">
+        <v>2</v>
+      </c>
+      <c r="E2" s="59">
         <v>41842</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="60">
         <v>9.375E-2</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="64">
         <v>42157</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="58">
         <v>4219</v>
       </c>
-      <c r="K2" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="59"/>
+      <c r="K2" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="58"/>
       <c r="M2" s="26">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>50.078333333333333</v>
@@ -1700,10 +1632,10 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1648,7 @@
     <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="7" customWidth="1"/>
     <col min="10" max="13" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.7109375" style="1"/>
@@ -1727,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -1736,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
@@ -1767,7 +1699,7 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
@@ -1775,8 +1707,8 @@
       <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>68</v>
+      <c r="E3" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="42">
         <v>2736</v>
@@ -1796,7 +1728,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>16</v>
@@ -1804,8 +1736,8 @@
       <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="68" t="s">
-        <v>68</v>
+      <c r="E4" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="41">
         <v>2736</v>
@@ -1823,7 +1755,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>16</v>
@@ -1831,8 +1763,8 @@
       <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="68" t="s">
-        <v>68</v>
+      <c r="E5" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F5" s="41">
         <v>2736</v>
@@ -1850,7 +1782,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>16</v>
@@ -1858,8 +1790,8 @@
       <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="68" t="s">
-        <v>68</v>
+      <c r="E6" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F6" s="41">
         <v>2736</v>
@@ -1877,7 +1809,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>16</v>
@@ -1885,8 +1817,8 @@
       <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="68" t="s">
-        <v>68</v>
+      <c r="E7" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F7" s="41">
         <v>2736</v>
@@ -1906,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>16</v>
@@ -1914,8 +1846,8 @@
       <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>68</v>
+      <c r="E8" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="41">
         <v>2736</v>
@@ -1935,7 +1867,7 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>16</v>
@@ -1943,8 +1875,8 @@
       <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="68" t="s">
-        <v>68</v>
+      <c r="E9" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F9" s="41">
         <v>2736</v>
@@ -1952,7 +1884,7 @@
       <c r="G9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="63">
         <v>1.0960000000000001</v>
       </c>
       <c r="I9" s="44" t="s">
@@ -1964,7 +1896,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>16</v>
@@ -1972,8 +1904,8 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="68" t="s">
-        <v>68</v>
+      <c r="E10" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="41">
         <v>2736</v>
@@ -2001,7 +1933,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
@@ -2009,8 +1941,8 @@
       <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="68" t="s">
-        <v>69</v>
+      <c r="E12" s="67" t="s">
+        <v>66</v>
       </c>
       <c r="F12" s="42">
         <v>1086</v>
@@ -2027,7 +1959,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>16</v>
@@ -2035,8 +1967,8 @@
       <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>69</v>
+      <c r="E13" s="67" t="s">
+        <v>66</v>
       </c>
       <c r="F13" s="41">
         <v>1086</v>
@@ -2061,7 +1993,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>16</v>
@@ -2069,8 +2001,8 @@
       <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="68" t="s">
-        <v>70</v>
+      <c r="E15" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="F15" s="42">
         <v>107</v>
@@ -2087,7 +2019,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>16</v>
@@ -2095,8 +2027,8 @@
       <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="68" t="s">
-        <v>70</v>
+      <c r="E16" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="F16" s="41">
         <v>107</v>
@@ -2121,7 +2053,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>16</v>
@@ -2129,8 +2061,8 @@
       <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="68" t="s">
-        <v>71</v>
+      <c r="E18" s="67" t="s">
+        <v>68</v>
       </c>
       <c r="F18" s="42">
         <v>1024</v>
@@ -2147,7 +2079,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>16</v>
@@ -2155,8 +2087,8 @@
       <c r="D19" s="32">
         <v>2</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>71</v>
+      <c r="E19" s="67" t="s">
+        <v>68</v>
       </c>
       <c r="F19" s="41">
         <v>1024</v>
@@ -2183,7 +2115,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>16</v>
@@ -2192,10 +2124,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="50"/>
@@ -2216,7 +2148,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>16</v>
@@ -2224,8 +2156,8 @@
       <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="68" t="s">
-        <v>72</v>
+      <c r="E23" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F23" s="42">
         <v>3283</v>
@@ -2245,7 +2177,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>16</v>
@@ -2253,8 +2185,8 @@
       <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="68" t="s">
-        <v>72</v>
+      <c r="E24" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F24" s="41">
         <v>3283</v>
@@ -2272,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>16</v>
@@ -2280,8 +2212,8 @@
       <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="68" t="s">
-        <v>72</v>
+      <c r="E25" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F25" s="41">
         <v>3283</v>
@@ -2299,7 +2231,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>16</v>
@@ -2307,8 +2239,8 @@
       <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="68" t="s">
-        <v>72</v>
+      <c r="E26" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F26" s="41">
         <v>3283</v>
@@ -2326,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>16</v>
@@ -2334,8 +2266,8 @@
       <c r="D27" s="7">
         <v>2</v>
       </c>
-      <c r="E27" s="68" t="s">
-        <v>72</v>
+      <c r="E27" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="41">
         <v>3283</v>
@@ -2355,7 +2287,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>16</v>
@@ -2363,8 +2295,8 @@
       <c r="D28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="68" t="s">
-        <v>72</v>
+      <c r="E28" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F28" s="41">
         <v>3283</v>
@@ -2384,7 +2316,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>16</v>
@@ -2392,8 +2324,8 @@
       <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="68" t="s">
-        <v>72</v>
+      <c r="E29" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F29" s="41">
         <v>3283</v>
@@ -2401,7 +2333,7 @@
       <c r="G29" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="63">
         <v>1.0960000000000001</v>
       </c>
       <c r="I29" s="44" t="s">
@@ -2413,7 +2345,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>16</v>
@@ -2421,8 +2353,8 @@
       <c r="D30" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="68" t="s">
-        <v>72</v>
+      <c r="E30" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="F30" s="41">
         <v>3283</v>
@@ -2450,7 +2382,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>16</v>
@@ -2458,8 +2390,8 @@
       <c r="D32" s="7">
         <v>2</v>
       </c>
-      <c r="E32" s="68" t="s">
-        <v>73</v>
+      <c r="E32" s="67" t="s">
+        <v>70</v>
       </c>
       <c r="F32" s="42">
         <v>1480</v>
@@ -2476,7 +2408,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>16</v>
@@ -2484,8 +2416,8 @@
       <c r="D33" s="7">
         <v>2</v>
       </c>
-      <c r="E33" s="68" t="s">
-        <v>73</v>
+      <c r="E33" s="67" t="s">
+        <v>70</v>
       </c>
       <c r="F33" s="41">
         <v>1480</v>
@@ -2510,7 +2442,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
@@ -2518,8 +2450,8 @@
       <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="68" t="s">
-        <v>74</v>
+      <c r="E35" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="F35" s="42">
         <v>134</v>
@@ -2536,7 +2468,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>16</v>
@@ -2544,8 +2476,8 @@
       <c r="D36" s="7">
         <v>2</v>
       </c>
-      <c r="E36" s="68" t="s">
-        <v>74</v>
+      <c r="E36" s="67" t="s">
+        <v>71</v>
       </c>
       <c r="F36" s="41">
         <v>134</v>
@@ -2570,7 +2502,7 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
@@ -2578,8 +2510,8 @@
       <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="E38" s="68" t="s">
-        <v>75</v>
+      <c r="E38" s="67" t="s">
+        <v>72</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>28</v>
@@ -2596,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>16</v>
@@ -2604,8 +2536,8 @@
       <c r="D39" s="32">
         <v>2</v>
       </c>
-      <c r="E39" s="68" t="s">
-        <v>75</v>
+      <c r="E39" s="67" t="s">
+        <v>72</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>28</v>
@@ -2632,25 +2564,24 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="53">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="53">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>66</v>
-      </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="55"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
     </row>
@@ -2665,16 +2596,15 @@
       <c r="H42" s="55"/>
       <c r="I42" s="36"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
-        <v>59</v>
+      <c r="A43" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -2686,16 +2616,15 @@
         <v>53</v>
       </c>
       <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
-        <v>60</v>
+      <c r="A44" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -2707,24 +2636,24 @@
         <v>54</v>
       </c>
       <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
-      <c r="B45" s="66"/>
+      <c r="B45" s="65"/>
       <c r="F45" s="39"/>
       <c r="G45" s="38"/>
       <c r="H45" s="37"/>
       <c r="I45" s="36"/>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>56</v>
+      <c r="A46" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>16</v>
@@ -2733,27 +2662,25 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="58">
+      <c r="H46" s="57">
         <v>1450</v>
       </c>
-      <c r="I46" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
-        <v>61</v>
+      <c r="A47" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>16</v>
@@ -2762,10 +2689,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>26</v>
@@ -2775,11 +2702,11 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
-        <v>61</v>
+      <c r="A48" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>16</v>
@@ -2788,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>25</v>
@@ -2804,11 +2731,11 @@
       <c r="H49" s="29"/>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
-        <v>79</v>
+      <c r="A50" s="68" t="s">
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>16</v>
@@ -2817,10 +2744,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="F50" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>55</v>

--- a/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="6690" windowWidth="29640" windowHeight="14430" activeTab="1"/>
+    <workbookView xWindow="7440" yWindow="6700" windowWidth="29640" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1143,7 +1138,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1202,7 +1197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,7 +1232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1448,30 +1443,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="28">
       <c r="A1" s="66" t="s">
         <v>59</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="17" customFormat="1">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1535,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="59">
-        <v>41842</v>
+        <v>41806</v>
       </c>
       <c r="F2" s="60">
         <v>9.375E-2</v>
@@ -1571,47 +1566,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="17" customFormat="1">
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" customFormat="1"/>
+    <row r="5" spans="1:16" customFormat="1"/>
+    <row r="6" spans="1:16" customFormat="1"/>
+    <row r="7" spans="1:16" customFormat="1"/>
+    <row r="8" spans="1:16" customFormat="1"/>
+    <row r="9" spans="1:16" s="17" customFormat="1">
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="17" customFormat="1">
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="17" customFormat="1">
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="17" customFormat="1">
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="17" customFormat="1">
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="17" customFormat="1">
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="17" customFormat="1">
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="23"/>
@@ -1631,30 +1626,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="1"/>
+    <col min="15" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="28">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="13" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1694,7 +1689,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="35" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="33" t="s">
         <v>49</v>
       </c>
@@ -1750,7 +1745,7 @@
       </c>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="33" t="s">
         <v>49</v>
       </c>
@@ -1777,7 +1772,7 @@
       </c>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
@@ -1804,7 +1799,7 @@
       </c>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
@@ -1833,7 +1828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="33" t="s">
         <v>49</v>
       </c>
@@ -1862,7 +1857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="33" t="s">
         <v>49</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="33" t="s">
         <v>49</v>
       </c>
@@ -1920,7 +1915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="33"/>
       <c r="B11" s="54"/>
       <c r="C11" s="32"/>
@@ -1928,7 +1923,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="35" t="s">
         <v>48</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="33" t="s">
         <v>48</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="33"/>
       <c r="B14" s="54"/>
       <c r="C14" s="32"/>
@@ -1988,7 +1983,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="35" t="s">
         <v>47</v>
       </c>
@@ -2014,7 +2009,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -2040,7 +2035,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="33"/>
       <c r="B17" s="54"/>
       <c r="C17" s="32"/>
@@ -2048,7 +2043,7 @@
       <c r="G17" s="43"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="35" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2069,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="33" t="s">
         <v>46</v>
       </c>
@@ -2100,7 +2095,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="33"/>
       <c r="B20" s="54"/>
       <c r="C20" s="32"/>
@@ -2110,7 +2105,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="50"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="51" t="s">
         <v>51</v>
       </c>
@@ -2133,7 +2128,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="33"/>
       <c r="B22" s="54"/>
       <c r="C22" s="32"/>
@@ -2143,7 +2138,7 @@
       <c r="G22" s="31"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="35" t="s">
         <v>36</v>
       </c>
@@ -2172,7 +2167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="33" t="s">
         <v>36</v>
       </c>
@@ -2199,7 +2194,7 @@
       </c>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="33" t="s">
         <v>36</v>
       </c>
@@ -2226,7 +2221,7 @@
       </c>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="33" t="s">
         <v>36</v>
       </c>
@@ -2253,7 +2248,7 @@
       </c>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="33" t="s">
         <v>36</v>
       </c>
@@ -2282,7 +2277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="33" t="s">
         <v>36</v>
       </c>
@@ -2311,7 +2306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="33" t="s">
         <v>36</v>
       </c>
@@ -2340,7 +2335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="33" t="s">
         <v>36</v>
       </c>
@@ -2369,7 +2364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="33"/>
       <c r="B31" s="54"/>
       <c r="C31" s="32"/>
@@ -2377,7 +2372,7 @@
       <c r="H31" s="29"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="35" t="s">
         <v>33</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="33" t="s">
         <v>33</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="33"/>
       <c r="B34" s="54"/>
       <c r="C34" s="32"/>
@@ -2437,7 +2432,7 @@
       <c r="G34" s="31"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="35" t="s">
         <v>31</v>
       </c>
@@ -2463,7 +2458,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="33" t="s">
         <v>31</v>
       </c>
@@ -2489,7 +2484,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="33"/>
       <c r="B37" s="54"/>
       <c r="C37" s="32"/>
@@ -2497,7 +2492,7 @@
       <c r="G37" s="43"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="35" t="s">
         <v>29</v>
       </c>
@@ -2523,7 +2518,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="33" t="s">
         <v>29</v>
       </c>
@@ -2549,7 +2544,7 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="32"/>
@@ -2559,7 +2554,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="51" t="s">
         <v>52</v>
       </c>
@@ -2585,7 +2580,7 @@
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="33"/>
       <c r="B42" s="54"/>
       <c r="C42" s="32"/>
@@ -2599,7 +2594,7 @@
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="62" t="s">
         <v>57</v>
       </c>
@@ -2619,7 +2614,7 @@
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="62" t="s">
         <v>58</v>
       </c>
@@ -2639,7 +2634,7 @@
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
     </row>
-    <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="29" customFormat="1">
       <c r="A45" s="40"/>
       <c r="B45" s="65"/>
       <c r="F45" s="39"/>
@@ -2648,7 +2643,7 @@
       <c r="I45" s="36"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -2675,7 +2670,7 @@
       </c>
       <c r="I46" s="29"/>
     </row>
-    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -2701,7 +2696,7 @@
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
@@ -2727,10 +2722,10 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="H49" s="29"/>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="68" t="s">
         <v>76</v>
       </c>

--- a/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GP02HYPM_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtravis\Desktop\Cal Sheet project\Papa_cal_sheets_RT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="6700" windowWidth="29640" windowHeight="14440"/>
+    <workbookView xWindow="7440" yWindow="6696" windowWidth="29640" windowHeight="14436" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="105">
   <si>
     <t>Ref Des</t>
   </si>
@@ -312,19 +317,95 @@
   <si>
     <t>GP02HYPM-RIM01-02-CTDMOG039</t>
   </si>
+  <si>
+    <t>Induction ID</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>CC_wbotc</t>
+  </si>
+  <si>
+    <t>CC_a0</t>
+  </si>
+  <si>
+    <t>CC_a1</t>
+  </si>
+  <si>
+    <t>CC_a2</t>
+  </si>
+  <si>
+    <t>CC_a3</t>
+  </si>
+  <si>
+    <t>CC_ptempa0</t>
+  </si>
+  <si>
+    <t>CC_ptempa1</t>
+  </si>
+  <si>
+    <t>CC_ptempa2</t>
+  </si>
+  <si>
+    <t>CC_ptca0</t>
+  </si>
+  <si>
+    <t>CC_ptca1</t>
+  </si>
+  <si>
+    <t>CC_ptca2</t>
+  </si>
+  <si>
+    <t>CC_ptcb0</t>
+  </si>
+  <si>
+    <t>CC_ptcb1</t>
+  </si>
+  <si>
+    <t>CC_ptcb2</t>
+  </si>
+  <si>
+    <t>CC_pa0</t>
+  </si>
+  <si>
+    <t>CC_pa1</t>
+  </si>
+  <si>
+    <t>CC_pa2</t>
+  </si>
+  <si>
+    <t>CC_g</t>
+  </si>
+  <si>
+    <t>CC_h</t>
+  </si>
+  <si>
+    <t>CC_i</t>
+  </si>
+  <si>
+    <t>CC_j</t>
+  </si>
+  <si>
+    <t>CC_cpcor</t>
+  </si>
+  <si>
+    <t>CC_ctcor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +612,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +652,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +877,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -885,9 +978,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -952,9 +1042,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,6 +1071,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="7" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="32" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="137">
     <cellStyle name="Comma 2" xfId="62"/>
@@ -1138,7 +1243,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1443,31 +1548,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="28">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1516,7 +1621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1">
+    <row r="2" spans="1:16" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1526,31 +1631,31 @@
       <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="58">
-        <v>2</v>
-      </c>
-      <c r="E2" s="59">
+      <c r="D2" s="56">
+        <v>2</v>
+      </c>
+      <c r="E2" s="57">
         <v>41806</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="58">
         <v>9.375E-2</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="62">
         <v>42157</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="56">
         <v>4219</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="26">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>50.078333333333333</v>
@@ -1566,47 +1671,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="17" customFormat="1">
+    <row r="3" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:16" customFormat="1"/>
-    <row r="5" spans="1:16" customFormat="1"/>
-    <row r="6" spans="1:16" customFormat="1"/>
-    <row r="7" spans="1:16" customFormat="1"/>
-    <row r="8" spans="1:16" customFormat="1"/>
-    <row r="9" spans="1:16" s="17" customFormat="1">
+    <row r="4" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:16" s="17" customFormat="1">
+    <row r="10" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:16" s="17" customFormat="1">
+    <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:16" s="17" customFormat="1">
+    <row r="12" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:16" s="17" customFormat="1">
+    <row r="13" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:16" s="17" customFormat="1">
+    <row r="14" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:16" s="17" customFormat="1">
+    <row r="15" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="23"/>
@@ -1624,32 +1729,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="7" customWidth="1"/>
     <col min="10" max="13" width="10.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="28">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1689,8 +1794,8 @@
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
@@ -1702,23 +1807,23 @@
       <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>2736</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="30">
         <v>51</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>49</v>
       </c>
@@ -1731,13 +1836,13 @@
       <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>2736</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="30">
@@ -1745,7 +1850,7 @@
       </c>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>49</v>
       </c>
@@ -1758,21 +1863,21 @@
       <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>2736</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="43">
         <v>52</v>
       </c>
-      <c r="I5" s="45"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
@@ -1785,21 +1890,21 @@
       <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>2736</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="43">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
@@ -1812,23 +1917,23 @@
       <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <v>2736</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>140</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>49</v>
       </c>
@@ -1841,23 +1946,23 @@
       <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>2736</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>700</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>49</v>
       </c>
@@ -1870,23 +1975,23 @@
       <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>2736</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="61">
         <v>1.0960000000000001</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>49</v>
       </c>
@@ -1899,32 +2004,32 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>2736</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>3.9E-2</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="32"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="40"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="35" t="s">
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1936,20 +2041,20 @@
       <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>1086</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="47" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="30">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>48</v>
       </c>
@@ -1962,10 +2067,10 @@
       <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>1086</v>
       </c>
       <c r="G13" s="31" t="s">
@@ -1975,16 +2080,16 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="32"/>
-      <c r="F14" s="41"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="31"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -1996,20 +2101,20 @@
       <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>107</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="42" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="30">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -2022,29 +2127,29 @@
       <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <v>107</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="42" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="30">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="32"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
@@ -2056,20 +2161,20 @@
       <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>1024</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="47" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="30">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>46</v>
       </c>
@@ -2082,10 +2187,10 @@
       <c r="D19" s="32">
         <v>2</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <v>1024</v>
       </c>
       <c r="G19" s="31" t="s">
@@ -2095,27 +2200,27 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="41"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="51" t="s">
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="53">
+      <c r="C21" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="52">
         <v>2</v>
       </c>
       <c r="E21" t="s">
@@ -2125,21 +2230,21 @@
         <v>61</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
-      <c r="B22" s="54"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="41"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="31"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B23" t="s">
@@ -2151,23 +2256,23 @@
       <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>3283</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="42" t="s">
         <v>45</v>
       </c>
       <c r="H23" s="30">
         <v>50</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>36</v>
       </c>
@@ -2180,21 +2285,21 @@
       <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>3283</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <v>1.705E-6</v>
       </c>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>36</v>
       </c>
@@ -2207,21 +2312,21 @@
       <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <v>3283</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <v>49</v>
       </c>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>36</v>
       </c>
@@ -2234,21 +2339,21 @@
       <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <v>3283</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="43">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>36</v>
       </c>
@@ -2261,23 +2366,23 @@
       <c r="D27" s="7">
         <v>2</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>3283</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="48">
         <v>140</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>36</v>
       </c>
@@ -2290,23 +2395,23 @@
       <c r="D28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <v>3283</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="45">
         <v>700</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>36</v>
       </c>
@@ -2319,23 +2424,23 @@
       <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="40">
         <v>3283</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="61">
         <v>1.0960000000000001</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>36</v>
       </c>
@@ -2348,32 +2453,32 @@
       <c r="D30" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <v>3283</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="44">
         <v>3.9E-2</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="33"/>
-      <c r="B31" s="54"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="32"/>
-      <c r="F31" s="41"/>
+      <c r="F31" s="40"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="44"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="35" t="s">
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
@@ -2385,20 +2490,20 @@
       <c r="D32" s="7">
         <v>2</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <v>1480</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="47" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="30">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>33</v>
       </c>
@@ -2411,10 +2516,10 @@
       <c r="D33" s="7">
         <v>2</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <v>1480</v>
       </c>
       <c r="G33" s="31" t="s">
@@ -2424,16 +2529,16 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
-      <c r="B34" s="54"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="32"/>
-      <c r="F34" s="41"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="31"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B35" t="s">
@@ -2445,20 +2550,20 @@
       <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <v>134</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="42" t="s">
         <v>32</v>
       </c>
       <c r="H35" s="30">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>31</v>
       </c>
@@ -2471,29 +2576,29 @@
       <c r="D36" s="7">
         <v>2</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E36" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <v>134</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="42" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="30">
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="33"/>
-      <c r="B37" s="54"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="32"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B38" t="s">
@@ -2505,20 +2610,20 @@
       <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="47" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="30">
         <v>50.07833333</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>29</v>
       </c>
@@ -2531,10 +2636,10 @@
       <c r="D39" s="32">
         <v>2</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="40" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="31" t="s">
@@ -2544,27 +2649,27 @@
         <v>-144.8053333</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="41"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="30"/>
-      <c r="H40" s="55"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="51" t="s">
+      <c r="H40" s="54"/>
+    </row>
+    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="53">
+      <c r="C41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="52">
         <v>2</v>
       </c>
       <c r="E41" t="s">
@@ -2574,28 +2679,28 @@
         <v>64</v>
       </c>
       <c r="G41" s="30"/>
-      <c r="H41" s="55"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
-      <c r="B42" s="54"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="41"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="36"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="62" t="s">
+    <row r="43" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="60" t="s">
         <v>57</v>
       </c>
       <c r="B43" t="s">
@@ -2604,18 +2709,18 @@
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="41"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="36" t="s">
+      <c r="H43" s="54"/>
+      <c r="I43" s="35" t="s">
         <v>53</v>
       </c>
       <c r="J43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="62" t="s">
+    <row r="44" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="60" t="s">
         <v>58</v>
       </c>
       <c r="B44" t="s">
@@ -2624,26 +2729,26 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="41"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="30"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="36" t="s">
+      <c r="H44" s="54"/>
+      <c r="I44" s="35" t="s">
         <v>54</v>
       </c>
       <c r="J44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
     </row>
-    <row r="45" spans="1:13" s="29" customFormat="1">
-      <c r="A45" s="40"/>
-      <c r="B45" s="65"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="36"/>
+    <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39"/>
+      <c r="B45" s="63"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="35"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -2662,95 +2767,752 @@
       <c r="F46" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="67">
+        <v>39</v>
+      </c>
+      <c r="I46" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="68">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="32">
+        <v>2</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="69">
+        <v>50.07833333</v>
+      </c>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="32">
+        <v>2</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="69">
+        <v>-144.80533333</v>
+      </c>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="32">
+        <v>2</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="57">
+      <c r="H49" s="67">
         <v>1450</v>
       </c>
-      <c r="I46" s="29"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1" t="s">
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="7">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B50" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="32">
+        <v>2</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="30">
-        <v>50.07833333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
+      <c r="G50" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="72">
+        <v>6.1585E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="7">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="B51" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="32">
+        <v>2</v>
+      </c>
+      <c r="E51" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F51" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="30">
-        <v>-144.8053333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="H49" s="29"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="68" t="s">
+      <c r="G51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="71">
+        <v>-1.5550089999999999E-4</v>
+      </c>
+      <c r="I51" s="70"/>
+    </row>
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="32">
+        <v>2</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="71">
+        <v>3.1422079999999999E-4</v>
+      </c>
+      <c r="I52" s="70"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="32">
+        <v>2</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="71">
+        <v>-4.853453E-6</v>
+      </c>
+      <c r="I53" s="70"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="32">
+        <v>2</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="71">
+        <v>2.1274440000000001E-7</v>
+      </c>
+      <c r="I54" s="70"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="32">
+        <v>2</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="72">
+        <v>-68.399609999999996</v>
+      </c>
+      <c r="I55" s="70"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="32">
+        <v>2</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" s="72">
+        <v>5.2338429999999998E-2</v>
+      </c>
+      <c r="I56" s="70"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="32">
+        <v>2</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="72">
+        <v>-5.7981859999999996E-7</v>
+      </c>
+      <c r="I57" s="70"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="32">
+        <v>2</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="72">
+        <v>523081.2</v>
+      </c>
+      <c r="I58" s="70"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="32">
+        <v>2</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="72">
+        <v>-51.000579999999999</v>
+      </c>
+      <c r="I59" s="70"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="32">
+        <v>2</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" s="72">
+        <v>-0.30267189999999999</v>
+      </c>
+      <c r="I60" s="70"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="32">
+        <v>2</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="72">
+        <v>25.395879999999998</v>
+      </c>
+      <c r="I61" s="70"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="32">
+        <v>2</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H62" s="72">
+        <v>1.175E-3</v>
+      </c>
+      <c r="I62" s="70"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="32">
+        <v>2</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" s="72">
+        <v>0</v>
+      </c>
+      <c r="I63" s="70"/>
+    </row>
+    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="32">
+        <v>2</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" s="71">
+        <v>-6.0641569999999998</v>
+      </c>
+      <c r="I64" s="70"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="32">
+        <v>2</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="71">
+        <v>4.7937769999999999E-3</v>
+      </c>
+      <c r="I65" s="70"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="32">
+        <v>2</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="71">
+        <v>-1.0153079999999999E-11</v>
+      </c>
+      <c r="I66" s="70"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="32">
+        <v>2</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" s="72">
+        <v>-0.96404829999999997</v>
+      </c>
+      <c r="I67" s="70"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="32">
+        <v>2</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H68" s="72">
+        <v>0.14654790000000001</v>
+      </c>
+      <c r="I68" s="70"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="32">
+        <v>2</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="72">
+        <v>-4.017723E-4</v>
+      </c>
+      <c r="I69" s="70"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="32">
+        <v>2</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="72">
+        <v>5.1023750000000001E-5</v>
+      </c>
+      <c r="I70" s="70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="32">
+        <v>2</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="72">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+      <c r="I71" s="70"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="32">
+        <v>2</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" s="72">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="I72" s="70"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="53">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="52">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="56" t="s">
+      <c r="F74" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I74" s="29" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
